--- a/Project Work SOM.xlsx
+++ b/Project Work SOM.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentsust-my.sharepoint.com/personal/mominul27_student_sust_edu/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSE303LAB\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F2A9CA1-613E-4AE3-9BD9-D3741453D215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Emp_ID</t>
   </si>
@@ -67,33 +66,6 @@
     <t>Gross.</t>
   </si>
   <si>
-    <t>or create a new repository on the command line</t>
-  </si>
-  <si>
-    <t>echo "# Test" &gt;&gt; README.md</t>
-  </si>
-  <si>
-    <t>git init</t>
-  </si>
-  <si>
-    <t>git add README.md</t>
-  </si>
-  <si>
-    <t>git commit -m "first commit"</t>
-  </si>
-  <si>
-    <t>git branch -M main</t>
-  </si>
-  <si>
-    <t>git remote add origin https://github.com/chakrabarty-sourav409/Test.git</t>
-  </si>
-  <si>
-    <t>git push -u origin main</t>
-  </si>
-  <si>
-    <t>…or push an existing repository from the command line</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -128,13 +100,16 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>Salary Sheet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,16 +137,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -179,11 +168,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -192,6 +196,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,560 +489,553 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="21">
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2">
+    <row r="3" spans="1:10">
+      <c r="A3" s="4">
+        <v>20250001</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5">
         <v>53000</v>
       </c>
-      <c r="D2">
-        <f>IF(C2&gt;=60000,C2*40%,IF(C2&gt;=50000,C2*45%,C2*50))</f>
+      <c r="D3" s="5">
+        <f>IF(C3&gt;=60000,C3*40%,IF(C3&gt;=50000,C3*45%,C3*50))</f>
         <v>23850</v>
       </c>
-      <c r="E2">
-        <v>1500</v>
-      </c>
-      <c r="F2">
+      <c r="E3" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F3" s="5">
         <v>3</v>
       </c>
-      <c r="G2">
-        <f>IF(F2=1,500,IF(F2&gt;=2,1000,0))</f>
+      <c r="G3" s="5">
+        <f>IF(F3=1,500,IF(F3&gt;=2,1000,0))</f>
         <v>1000</v>
       </c>
-      <c r="H2">
-        <f>SUM(C2+D2+E2+G2)</f>
+      <c r="H3" s="5">
+        <f>SUM(C3+D3+E3+G3)</f>
         <v>79350</v>
       </c>
-      <c r="I2">
-        <f>C2*10%</f>
+      <c r="I3" s="5">
+        <f>C3*10%</f>
         <v>5300</v>
       </c>
-      <c r="J2">
-        <f>H2-I2</f>
+      <c r="J3" s="5">
+        <f>H3-I3</f>
         <v>74050</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
+    <row r="4" spans="1:10">
+      <c r="A4" s="4">
+        <v>20250002</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
+        <v>56000</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D14" si="0">IF(C4&gt;=60000,C4*40%,IF(C4&gt;=50000,C4*45%,C4*50))</f>
+        <v>25200</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F4" s="5">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>56000</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D13" si="0">IF(C3&gt;=60000,C3*40%,IF(C3&gt;=50000,C3*45%,C3*50))</f>
-        <v>25200</v>
-      </c>
-      <c r="E3">
-        <v>1500</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G13" si="1">IF(F3=1,500,IF(F3&gt;=2,1000,0))</f>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G14" si="1">IF(F4=1,500,IF(F4&gt;=2,1000,0))</f>
         <v>1000</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H13" si="2">SUM(C3+D3+E3+G3)</f>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:H14" si="2">SUM(C4+D4+E4+G4)</f>
         <v>83700</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I10" si="3">C3*10%</f>
+      <c r="I4" s="5">
+        <f t="shared" ref="I4:I11" si="3">C4*10%</f>
         <v>5600</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J13" si="4">H3-I3</f>
+      <c r="J4" s="5">
+        <f t="shared" ref="J4:J14" si="4">H4-I4</f>
         <v>78100</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4">
+    <row r="5" spans="1:10">
+      <c r="A5" s="4">
+        <v>20250003</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5">
         <v>100000</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="5">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
-      <c r="E4">
-        <v>1500</v>
-      </c>
-      <c r="F4">
+      <c r="E5" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="G5" s="5">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="H4">
+      <c r="H5" s="5">
         <f t="shared" si="2"/>
         <v>142000</v>
       </c>
-      <c r="I4">
+      <c r="I5" s="5">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="J4">
+      <c r="J5" s="5">
         <f t="shared" si="4"/>
         <v>132000</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
+    <row r="6" spans="1:10">
+      <c r="A6" s="4">
+        <v>20250004</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5">
         <v>61000</v>
       </c>
-      <c r="D5">
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>24400</v>
       </c>
-      <c r="E5">
-        <v>1500</v>
-      </c>
-      <c r="F5">
+      <c r="E6" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F6" s="5">
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="G6" s="5">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="H5">
+      <c r="H6" s="5">
         <f t="shared" si="2"/>
         <v>87900</v>
       </c>
-      <c r="I5">
+      <c r="I6" s="5">
         <f t="shared" si="3"/>
         <v>6100</v>
       </c>
-      <c r="J5">
+      <c r="J6" s="5">
         <f t="shared" si="4"/>
         <v>81800</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6">
+    <row r="7" spans="1:10">
+      <c r="A7" s="4">
+        <v>20250005</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5">
         <v>70000</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
         <v>28000</v>
       </c>
-      <c r="E6">
-        <v>1500</v>
-      </c>
-      <c r="F6">
+      <c r="E7" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F7" s="5">
         <v>2</v>
       </c>
-      <c r="G6">
+      <c r="G7" s="5">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="H6">
+      <c r="H7" s="5">
         <f t="shared" si="2"/>
         <v>100500</v>
       </c>
-      <c r="I6">
+      <c r="I7" s="5">
         <f t="shared" si="3"/>
         <v>7000</v>
       </c>
-      <c r="J6">
+      <c r="J7" s="5">
         <f t="shared" si="4"/>
         <v>93500</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7">
+    <row r="8" spans="1:10">
+      <c r="A8" s="4">
+        <v>20250006</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5">
         <v>100000</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
-      <c r="E7">
-        <v>1500</v>
-      </c>
-      <c r="F7">
+      <c r="E8" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F8" s="5">
         <v>3</v>
       </c>
-      <c r="G7">
+      <c r="G8" s="5">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="H7">
+      <c r="H8" s="5">
         <f t="shared" si="2"/>
         <v>142500</v>
       </c>
-      <c r="I7">
+      <c r="I8" s="5">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="J7">
+      <c r="J8" s="5">
         <f t="shared" si="4"/>
         <v>132500</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
+    <row r="9" spans="1:10">
+      <c r="A9" s="4">
+        <v>20250007</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5">
         <v>57000</v>
       </c>
-      <c r="D8">
+      <c r="D9" s="5">
         <f t="shared" si="0"/>
         <v>25650</v>
       </c>
-      <c r="E8">
-        <v>1500</v>
-      </c>
-      <c r="F8">
+      <c r="E9" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F9" s="5">
         <v>4</v>
       </c>
-      <c r="G8">
+      <c r="G9" s="5">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="H8">
+      <c r="H9" s="5">
         <f t="shared" si="2"/>
         <v>85150</v>
       </c>
-      <c r="I8">
+      <c r="I9" s="5">
         <f t="shared" si="3"/>
         <v>5700</v>
       </c>
-      <c r="J8">
+      <c r="J9" s="5">
         <f t="shared" si="4"/>
         <v>79450</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9">
+    <row r="10" spans="1:10">
+      <c r="A10" s="4">
+        <v>20250008</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5">
         <v>60000</v>
       </c>
-      <c r="D9">
+      <c r="D10" s="5">
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
-      <c r="E9">
-        <v>1500</v>
-      </c>
-      <c r="F9">
+      <c r="E10" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F10" s="5">
         <v>2</v>
       </c>
-      <c r="G9">
+      <c r="G10" s="5">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="H9">
+      <c r="H10" s="5">
         <f t="shared" si="2"/>
         <v>86500</v>
       </c>
-      <c r="I9">
+      <c r="I10" s="5">
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-      <c r="J9">
+      <c r="J10" s="5">
         <f t="shared" si="4"/>
         <v>80500</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10">
+    <row r="11" spans="1:10">
+      <c r="A11" s="4">
+        <v>20250009</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5">
         <v>100000</v>
       </c>
-      <c r="D10">
+      <c r="D11" s="5">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
-      <c r="E10">
-        <v>1500</v>
-      </c>
-      <c r="F10">
+      <c r="E11" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F11" s="5">
         <v>3</v>
       </c>
-      <c r="G10">
+      <c r="G11" s="5">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="H10">
+      <c r="H11" s="5">
         <f t="shared" si="2"/>
         <v>142500</v>
       </c>
-      <c r="I10">
+      <c r="I11" s="5">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="J10">
+      <c r="J11" s="5">
         <f t="shared" si="4"/>
         <v>132500</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11">
+    <row r="12" spans="1:10">
+      <c r="A12" s="4">
+        <v>20250010</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5">
         <v>51000</v>
       </c>
-      <c r="D11">
+      <c r="D12" s="5">
         <f t="shared" si="0"/>
         <v>22950</v>
       </c>
-      <c r="E11">
-        <v>1500</v>
-      </c>
-      <c r="F11">
+      <c r="E12" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F12" s="5">
         <v>2</v>
       </c>
-      <c r="G11">
+      <c r="G12" s="5">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="H11">
+      <c r="H12" s="5">
         <f t="shared" si="2"/>
         <v>76450</v>
       </c>
-      <c r="I11">
-        <f>C11*10%</f>
+      <c r="I12" s="5">
+        <f>C12*10%</f>
         <v>5100</v>
       </c>
-      <c r="J11">
+      <c r="J12" s="5">
         <f t="shared" si="4"/>
         <v>71350</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12">
+    <row r="13" spans="1:10">
+      <c r="A13" s="4">
+        <v>20250011</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5">
         <v>300000</v>
       </c>
-      <c r="D12">
+      <c r="D13" s="5">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="E12">
-        <v>1500</v>
-      </c>
-      <c r="F12">
+      <c r="E13" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F13" s="5">
         <v>0</v>
       </c>
-      <c r="G12">
+      <c r="G13" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H12">
+      <c r="H13" s="5">
         <f t="shared" si="2"/>
         <v>421500</v>
       </c>
-      <c r="I12">
-        <f>C12*10%</f>
+      <c r="I13" s="5">
+        <f>C13*10%</f>
         <v>30000</v>
       </c>
-      <c r="J12">
+      <c r="J13" s="5">
         <f t="shared" si="4"/>
         <v>391500</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13">
+    <row r="14" spans="1:10">
+      <c r="A14" s="4">
+        <v>20250012</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="5">
         <v>56500</v>
       </c>
-      <c r="D13">
+      <c r="D14" s="5">
         <f t="shared" si="0"/>
         <v>25425</v>
       </c>
-      <c r="E13">
-        <v>1500</v>
-      </c>
-      <c r="F13">
+      <c r="E14" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F14" s="5">
         <v>3</v>
       </c>
-      <c r="G13">
+      <c r="G14" s="5">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="H13">
+      <c r="H14" s="5">
         <f t="shared" si="2"/>
         <v>84425</v>
       </c>
-      <c r="I13">
-        <f>C13*10%</f>
+      <c r="I14" s="5">
+        <f>C14*10%</f>
         <v>5650</v>
       </c>
-      <c r="J13">
+      <c r="J14" s="5">
         <f t="shared" si="4"/>
         <v>78775</v>
       </c>
     </row>
-    <row r="35" spans="6:6" ht="122.4">
-      <c r="F35" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="6:6">
-      <c r="F36" s="2" t="s">
-        <v>11</v>
-      </c>
+    <row r="36" spans="6:6" ht="21">
+      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="6:6">
-      <c r="F37" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="6:6">
-      <c r="F38" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" spans="6:6">
-      <c r="F39" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="F39" s="2"/>
     </row>
     <row r="40" spans="6:6">
-      <c r="F40" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" spans="6:6">
-      <c r="F41" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="F41" s="2"/>
     </row>
     <row r="42" spans="6:6">
-      <c r="F42" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="6:6" ht="142.80000000000001">
-      <c r="F43" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="6:6">
-      <c r="F44" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="6:6" ht="21">
+      <c r="F44" s="1"/>
     </row>
     <row r="45" spans="6:6">
-      <c r="F45" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="F45" s="2"/>
     </row>
     <row r="46" spans="6:6">
-      <c r="F46" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="70" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>